--- a/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 4.xlsx
@@ -3179,15 +3179,15 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A12:B25"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A12:B25"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="K19:P19"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="M24:N24"/>
@@ -3202,7 +3202,7 @@
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="E21:F21"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
@@ -6162,12 +6162,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="111" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F25" s="100" t="n"/>
+      <c r="E25" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="100" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G25" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10138,12 +10142,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="111" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F25" s="100" t="n"/>
+      <c r="E25" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="100" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G25" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10214,12 +10222,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="111" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F27" s="100" t="n"/>
+      <c r="E27" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="100" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G27" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11341,12 +11353,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="100" t="n"/>
+      <c r="E6" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="100" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G6" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11531,12 +11547,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="100" t="n"/>
+      <c r="E11" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="100" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G11" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12079,12 +12099,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="100" t="n"/>
+      <c r="E25" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="100" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
       <c r="G25" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12155,12 +12179,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F27" s="100" t="n"/>
+      <c r="E27" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="100" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G27" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12383,12 +12411,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="100" t="n"/>
+      <c r="E33" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="100" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G33" s="109" t="inlineStr">
         <is>
           <t>Não</t>

--- a/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 4.xlsx
@@ -11395,12 +11395,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F7" s="100" t="n"/>
+      <c r="E7" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F7" s="100" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
       <c r="G7" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11947,12 +11951,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="100" t="n"/>
+      <c r="E21" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="100" t="inlineStr">
+        <is>
+          <t>12/12/2025</t>
+        </is>
+      </c>
       <c r="G21" s="109" t="inlineStr">
         <is>
           <t>Não</t>

--- a/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 4.xlsx
@@ -12381,12 +12381,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="100" t="n"/>
+      <c r="E32" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="100" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
       <c r="G32" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12963,12 +12967,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="113" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F47" s="100" t="n"/>
+      <c r="E47" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F47" s="100" t="inlineStr">
+        <is>
+          <t>19/12/2025</t>
+        </is>
+      </c>
       <c r="G47" s="109" t="inlineStr">
         <is>
           <t>Não</t>
